--- a/data/processed/state_overviews/new-jersey_overview.xlsx
+++ b/data/processed/state_overviews/new-jersey_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2532</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2,532</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Atlantic County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>66</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Bergen County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>231</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Burlington County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>93</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Camden County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>142</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Cape May County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>38</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Cumberland County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>44</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Essex County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>280</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Gloucester County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>37</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Hudson County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>118</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Hunterdon County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>63</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>213</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Middlesex County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>176</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Monmouth County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>203</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Morris County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>168</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Ocean County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>183</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Passaic County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>124</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Salem County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>23</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Somerset County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>120</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Sussex County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>36</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>134</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>40</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1085,6 +1129,38 @@
       <c r="F22" t="inlineStr">
         <is>
           <t>72.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2,532</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$5,748,555,291</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.71%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-15.65%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>69.47%</t>
         </is>
       </c>
     </row>
@@ -1139,8 +1215,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>172</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1169,8 +1247,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>231</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1199,8 +1279,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>251</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1229,8 +1311,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>275</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1259,8 +1343,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B6">
-        <v>201</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1289,8 +1375,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B7">
-        <v>196</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1319,8 +1407,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B8">
-        <v>232</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1349,8 +1439,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B9">
-        <v>228</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1379,8 +1471,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B10">
-        <v>210</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1409,8 +1503,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B11">
-        <v>277</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1439,8 +1535,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B12">
-        <v>124</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1469,8 +1567,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B13">
-        <v>135</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1499,8 +1599,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2532</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2,532</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1574,8 +1676,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>679</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1604,8 +1708,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>713</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1634,8 +1740,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>375</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1664,8 +1772,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>245</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1694,8 +1804,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>338</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1724,8 +1836,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>182</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1754,8 +1868,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2532</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2,532</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1829,8 +1945,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>197</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1859,8 +1977,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>324</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1889,8 +2009,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>73</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1919,8 +2041,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>306</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1949,8 +2073,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>19</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1979,8 +2105,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>839</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2009,8 +2137,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>17</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2039,8 +2169,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2069,8 +2201,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>167</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2099,8 +2233,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>64</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2129,8 +2265,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>502</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2159,8 +2297,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>23</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2189,8 +2329,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2532</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2,532</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/new-jersey_overview.xlsx
+++ b/data/processed/state_overviews/new-jersey_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,736 +431,768 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Atlantic County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$68,347,256</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.28%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-16.18%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69.70%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bergen County</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2,532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$421,652,415</t>
+          <t>$5,748,555,291</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.45%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-9.28%</t>
+          <t>-15.65%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>69.47%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Burlington County</t>
+          <t>Atlantic County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$169,217,538</t>
+          <t>$68,347,256</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.73%</t>
+          <t>12.28%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.07%</t>
+          <t>-16.18%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>60.22%</t>
+          <t>69.70%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Camden County</t>
+          <t>Bergen County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$356,399,434</t>
+          <t>$421,652,415</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.59%</t>
+          <t>8.45%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-28.24%</t>
+          <t>-9.28%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.35%</t>
+          <t>61.90%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cape May County</t>
+          <t>Burlington County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$18,248,540</t>
+          <t>$169,217,538</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.77%</t>
+          <t>8.73%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-7.23%</t>
+          <t>-7.07%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>60.22%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cumberland County</t>
+          <t>Camden County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$131,323,024</t>
+          <t>$356,399,434</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.62%</t>
+          <t>5.59%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-34.15%</t>
+          <t>-28.24%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>75.35%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Essex County</t>
+          <t>Cape May County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,090,505,242</t>
+          <t>$18,248,540</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>18.77%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-25.48%</t>
+          <t>-7.23%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>73.93%</t>
+          <t>63.16%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gloucester County</t>
+          <t>Cumberland County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$74,078,240</t>
+          <t>$131,323,024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.03%</t>
+          <t>7.62%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-18.35%</t>
+          <t>-34.15%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>67.57%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hudson County</t>
+          <t>Essex County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>280</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$354,570,387</t>
+          <t>$1,090,505,242</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.68%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-33.48%</t>
+          <t>-25.48%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>78.81%</t>
+          <t>73.93%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hunterdon County</t>
+          <t>Gloucester County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$29,156,955</t>
+          <t>$74,078,240</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.95%</t>
+          <t>6.03%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-22.08%</t>
+          <t>-18.35%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>73.02%</t>
+          <t>67.57%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>Hudson County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$706,728,793</t>
+          <t>$354,570,387</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10.28%</t>
+          <t>-33.48%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.54%</t>
+          <t>78.81%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Middlesex County</t>
+          <t>Hunterdon County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$607,737,194</t>
+          <t>$29,156,955</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.69%</t>
+          <t>8.95%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-23.97%</t>
+          <t>-22.08%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>77.27%</t>
+          <t>73.02%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Monmouth County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>213</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$578,637,752</t>
+          <t>$706,728,793</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-11.47%</t>
+          <t>-10.28%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67.98%</t>
+          <t>68.54%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Morris County</t>
+          <t>Middlesex County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$182,317,810</t>
+          <t>$607,737,194</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.29%</t>
+          <t>4.69%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-10.68%</t>
+          <t>-23.97%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65.48%</t>
+          <t>77.27%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ocean County</t>
+          <t>Monmouth County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>203</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$177,655,803</t>
+          <t>$578,637,752</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.65%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-8.85%</t>
+          <t>-11.47%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>62.30%</t>
+          <t>67.98%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Passaic County</t>
+          <t>Morris County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$289,486,834</t>
+          <t>$182,317,810</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>12.29%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-18.99%</t>
+          <t>-10.68%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>70.16%</t>
+          <t>65.48%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salem County</t>
+          <t>Ocean County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$23,512,824</t>
+          <t>$177,655,803</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>9.65%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-36.71%</t>
+          <t>-8.85%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>82.61%</t>
+          <t>62.30%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Somerset County</t>
+          <t>Passaic County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$141,224,114</t>
+          <t>$289,486,834</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.72%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-11.85%</t>
+          <t>-18.99%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>70.16%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sussex County</t>
+          <t>Salem County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$16,935,365</t>
+          <t>$23,512,824</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.05%</t>
+          <t>4.84%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-8.81%</t>
+          <t>-36.71%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>63.89%</t>
+          <t>82.61%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Somerset County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$265,256,317</t>
+          <t>$141,224,114</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9.78%</t>
+          <t>9.72%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-15.85%</t>
+          <t>-11.85%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>69.40%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Sussex County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$45,563,454</t>
+          <t>$16,935,365</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.40%</t>
+          <t>12.05%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-19.94%</t>
+          <t>-8.81%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>72.50%</t>
+          <t>63.89%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,532</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$5,748,555,291</t>
+          <t>$265,256,317</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-15.65%</t>
+          <t>-15.85%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>69.47%</t>
+          <t>69.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Warren County</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$45,563,454</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-19.94%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>72.50%</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,448 +1212,480 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$428,033,965</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.81%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-27.36%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74.42%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2,532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,115,819,657</t>
+          <t>$5,748,555,291</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-36.69%</t>
+          <t>-15.65%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>78.79%</t>
+          <t>69.47%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$339,142,904</t>
+          <t>$428,033,965</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.34%</t>
+          <t>5.81%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.66%</t>
+          <t>-27.36%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.15%</t>
+          <t>74.42%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$794,893,931</t>
+          <t>$266,696,450</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.73%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.78%</t>
+          <t>-16.33%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.82%</t>
+          <t>71.64%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$266,696,450</t>
+          <t>$353,397,130</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.33%</t>
+          <t>-10.77%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.64%</t>
+          <t>65.31%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$353,397,130</t>
+          <t>$244,801,784</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.15%</t>
+          <t>10.08%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-10.77%</t>
+          <t>-8.10%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65.31%</t>
+          <t>61.21%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$244,801,784</t>
+          <t>$414,819,133</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.08%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-8.10%</t>
+          <t>-9.97%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61.21%</t>
+          <t>63.60%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$414,819,133</t>
+          <t>$925,702,846</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.97%</t>
+          <t>-18.59%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>63.60%</t>
+          <t>75.24%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>277</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$925,702,846</t>
+          <t>$223,888,992</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-18.59%</t>
+          <t>-14.93%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>75.24%</t>
+          <t>69.31%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$223,888,992</t>
+          <t>$345,582,456</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-14.93%</t>
+          <t>-32.84%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.31%</t>
+          <t>81.45%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$345,582,456</t>
+          <t>$295,776,043</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-32.84%</t>
+          <t>-17.63%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>81.45%</t>
+          <t>67.41%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$295,776,043</t>
+          <t>$1,115,819,657</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-17.63%</t>
+          <t>-36.69%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>67.41%</t>
+          <t>78.79%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2,532</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$5,748,555,291</t>
+          <t>$339,142,904</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>12.34%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-15.65%</t>
+          <t>-7.66%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>69.47%</t>
+          <t>62.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12th Congressional district</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$794,893,931</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.73%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-11.78%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>69.82%</t>
         </is>
       </c>
     </row>
@@ -1646,34 +1710,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1705,128 +1769,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>338</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$705,050,939</t>
+          <t>$4,107,627,504</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.63%</t>
+          <t>-8.43%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.09%</t>
+          <t>68.64%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>713</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$114,147,311</t>
+          <t>$705,050,939</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.02%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.02%</t>
+          <t>-17.63%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.73%</t>
+          <t>72.09%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>375</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$741,154,506</t>
+          <t>$114,147,311</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.65%</t>
+          <t>8.02%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.00%</t>
+          <t>-16.02%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.20%</t>
+          <t>67.73%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$4,107,627,504</t>
+          <t>$741,154,506</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>8.65%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.43%</t>
+          <t>-16.00%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.64%</t>
+          <t>70.20%</t>
         </is>
       </c>
     </row>
@@ -1915,34 +1979,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1974,7 +2038,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2006,7 +2070,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2038,7 +2102,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2102,7 +2166,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2134,7 +2198,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2166,160 +2230,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$5,900</t>
+          <t>$190,428,984</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44.52%</t>
+          <t>7.54%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>41.92%</t>
+          <t>-28.66%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>73.65%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$190,428,984</t>
+          <t>$36,677,987</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.54%</t>
+          <t>12.88%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-28.66%</t>
+          <t>-0.13%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>73.65%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$36,677,987</t>
+          <t>$5,900</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.88%</t>
+          <t>44.52%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>41.92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,215,602,157</t>
+          <t>$683,469,679</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.68%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-16.34%</t>
+          <t>-9.32%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.92%</t>
+          <t>78.26%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>502</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$683,469,679</t>
+          <t>$1,215,602,157</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-9.32%</t>
+          <t>-16.34%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>78.26%</t>
+          <t>69.92%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/new-jersey_overview.xlsx
+++ b/data/processed/state_overviews/new-jersey_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>69.47%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2,532</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$5,748,555,291</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-15.65%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.47%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.47%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,532</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$5,748,555,291</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-15.65%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.47%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>69.70%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$68,347,256</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.28%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-16.18%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>69.70%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>61.90%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>231</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$421,652,415</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.45%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-9.28%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>61.90%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>60.22%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$169,217,538</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-7.07%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>60.22%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>75.35%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>142</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$356,399,434</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.59%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-28.24%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>75.35%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>63.16%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$18,248,540</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>18.77%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-7.23%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>63.16%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$131,323,024</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>7.62%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-34.15%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>73.93%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>280</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$1,090,505,242</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-25.48%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>73.93%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>67.57%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$74,078,240</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>6.03%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-18.35%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>67.57%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>78.81%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>118</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$354,570,387</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>8.68%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-33.48%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>78.81%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>73.02%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$29,156,955</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.95%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-22.08%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>73.02%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>68.54%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>213</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$706,728,793</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.41%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-10.28%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>68.54%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>77.27%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>176</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$607,737,194</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>4.69%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-23.97%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>77.27%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>67.98%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>203</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$578,637,752</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.19%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-11.47%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>67.98%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>65.48%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>168</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$182,317,810</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>12.29%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-10.68%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>65.48%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>62.30%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$177,655,803</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>9.65%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-8.85%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>62.30%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>70.16%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$289,486,834</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>5.89%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-18.99%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>70.16%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>82.61%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$23,512,824</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>4.84%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-36.71%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>82.61%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$141,224,114</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-11.85%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>63.89%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$16,935,365</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>12.05%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-8.81%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>63.89%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>69.40%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>134</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$265,256,317</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>9.78%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-15.85%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>69.40%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>72.50%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$45,563,454</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>8.40%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-19.94%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>72.50%</t>
         </is>
       </c>
     </row>
@@ -1217,27 +1217,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1249,27 +1249,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1281,411 +1281,411 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.47%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,532</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$5,748,555,291</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-15.65%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.47%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>74.42%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$428,033,965</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>5.81%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-27.36%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>74.42%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>78.79%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$266,696,450</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>$1,115,819,657</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.33%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.64%</t>
+          <t>-36.69%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>62.15%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$353,397,130</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.15%</t>
+          <t>$339,142,904</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.77%</t>
+          <t>12.34%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65.31%</t>
+          <t>-7.66%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>69.82%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$244,801,784</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.08%</t>
+          <t>$794,893,931</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.10%</t>
+          <t>8.73%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61.21%</t>
+          <t>-11.78%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>71.64%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$414,819,133</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>$266,696,450</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-9.97%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>63.60%</t>
+          <t>-16.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>65.31%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$925,702,846</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>$353,397,130</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-18.59%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>75.24%</t>
+          <t>-10.77%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>61.21%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$223,888,992</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>$244,801,784</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-14.93%</t>
+          <t>10.08%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69.31%</t>
+          <t>-8.10%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>63.60%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$345,582,456</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>$414,819,133</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-32.84%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>81.45%</t>
+          <t>-9.97%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>75.24%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$295,776,043</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>$925,702,846</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-17.63%</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67.41%</t>
+          <t>-18.59%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>69.31%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,115,819,657</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>$223,888,992</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-36.69%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>78.79%</t>
+          <t>-14.93%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>81.45%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$339,142,904</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12.34%</t>
+          <t>$345,582,456</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-7.66%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62.15%</t>
+          <t>-32.84%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>67.41%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$794,893,931</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.73%</t>
+          <t>$295,776,043</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-11.78%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>69.82%</t>
+          <t>-17.63%</t>
         </is>
       </c>
     </row>
@@ -1710,187 +1710,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.34%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>679</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$72,988,085</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.19%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-17.42%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.34%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>72.09%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$4,107,627,504</t>
+          <t>713</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>$705,050,939</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.43%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.64%</t>
+          <t>-17.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>67.73%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$705,050,939</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>$114,147,311</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-17.63%</t>
+          <t>8.02%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.09%</t>
+          <t>-16.02%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>70.20%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$114,147,311</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.02%</t>
+          <t>$741,154,506</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.02%</t>
+          <t>8.65%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.73%</t>
+          <t>-16.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>68.64%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$741,154,506</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.65%</t>
+          <t>$4,107,627,504</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.00%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.20%</t>
+          <t>-8.43%</t>
         </is>
       </c>
     </row>
@@ -1902,27 +1902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>67.58%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>182</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$7,586,946</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>14.95%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.57%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67.58%</t>
         </is>
       </c>
     </row>
@@ -1934,27 +1934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.47%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2,532</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$5,748,555,291</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-15.65%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.47%</t>
         </is>
       </c>
     </row>
@@ -1979,155 +1979,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>71.07%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>197</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$131,126,992</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>14.89%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-13.82%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>71.07%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.37%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>324</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,093,043,901</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-15.28%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.37%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.68%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$23,114,679</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>18.46%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.06%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.68%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>72.88%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>306</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$534,237,726</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.75%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-23.37%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>72.88%</t>
         </is>
       </c>
     </row>
@@ -2139,251 +2139,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>68.42%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$730,556,540</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.78%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-3.90%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>68.42%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.08%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>839</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,107,531,305</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.37%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-18.72%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.08%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>35.29%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,759,441</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>15.80%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.52%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>35.29%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$190,428,984</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.54%</t>
+          <t>$5,900</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-28.66%</t>
+          <t>44.52%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>73.65%</t>
+          <t>41.92%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>73.65%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$36,677,987</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.88%</t>
+          <t>$190,428,984</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>7.54%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>-28.66%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$5,900</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.52%</t>
+          <t>$36,677,987</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>41.92%</t>
+          <t>12.88%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.13%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>69.92%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$683,469,679</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>$1,215,602,157</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-9.32%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>78.26%</t>
+          <t>-16.34%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>78.26%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,215,602,157</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.68%</t>
+          <t>$683,469,679</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-16.34%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.92%</t>
+          <t>-9.32%</t>
         </is>
       </c>
     </row>
@@ -2395,27 +2395,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>69.47%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2,532</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$5,748,555,291</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.71%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-15.65%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>69.47%</t>
         </is>
       </c>
     </row>
